--- a/ConsoleApp1/ConsoleApp1/inputn.xlsx
+++ b/ConsoleApp1/ConsoleApp1/inputn.xlsx
@@ -8,21 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDEAE11-D661-4480-BD49-488668387D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C8A245-389A-424F-BD4C-F80B33C3A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="2445" windowWidth="15420" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="atks" sheetId="1" r:id="rId1"/>
+    <sheet name="defs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무장수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탄복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분대지원장비(전투)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -31,6 +72,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -55,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -330,14 +379,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -346,12 +425,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426180A-214C-423E-9A31-44BE2EE9D3EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
